--- a/biology/Mycologie/Penicillium_citrinum/Penicillium_citrinum.xlsx
+++ b/biology/Mycologie/Penicillium_citrinum/Penicillium_citrinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium citrinum est une espèce du genre Penicillium.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penicillium citrinum est un fungi mésophile anamorphe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penicillium citrinum est un fungi mésophile anamorphe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de son caractère mésophile, Penicillium citrinum est présent dans le monde entier.
 </t>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penicillium citrinum est souvent présent sur les agrumes moisis et parfois dans les épices et les céréales tropicales[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penicillium citrinum est souvent présent sur les agrumes moisis et parfois dans les épices et les céréales tropicales.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penicillium citrinum produit de l'ACC, de la mévastatine, de la quinocitrinine A et B, de la citrinine néphrotoxique[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penicillium citrinum produit de l'ACC, de la mévastatine, de la quinocitrinine A et B, de la citrinine néphrotoxique.
 La première statine (mévastatine) est isolée à partir de cette espèce en 1970.
 </t>
         </is>
